--- a/resultados_codigos/A CRUZ DA SILVA COLCHOES E ESTOFADOS_codigos_fiscais.xlsx
+++ b/resultados_codigos/A CRUZ DA SILVA COLCHOES E ESTOFADOS_codigos_fiscais.xlsx
@@ -106,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -471,7 +471,7 @@
     <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
